--- a/Excel_proyects_BI 4 revised.xlsx
+++ b/Excel_proyects_BI 4 revised.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="Project Model" sheetId="2" r:id="rId1"/>
@@ -290,9 +290,6 @@
     <t>&lt;=</t>
   </si>
   <si>
-    <t>Qualified Managers:</t>
-  </si>
-  <si>
     <t>Manager</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
   </si>
   <si>
     <t xml:space="preserve">This gives a maximum NPV of $1954 meeting all constraints for all approved projects except 1, 3 and 12. </t>
+  </si>
+  <si>
+    <t>Qualified Managers: PART 2</t>
   </si>
 </sst>
 </file>
@@ -752,15 +752,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -768,6 +759,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -780,6 +774,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -967,6 +967,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1256,6 +1257,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1376,6 +1378,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1450,6 +1453,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1574,6 +1578,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1722,6 +1727,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1847,6 +1853,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5870,8 +5877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -5894,20 +5901,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="15" t="s">
@@ -5938,10 +5945,10 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="M3" s="68" t="s">
+      <c r="M3" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="68"/>
+      <c r="N3" s="65"/>
     </row>
     <row r="4" spans="1:16" ht="20.25">
       <c r="B4" s="22">
@@ -6105,10 +6112,10 @@
       <c r="H9" s="25">
         <v>180</v>
       </c>
-      <c r="M9" s="69" t="s">
+      <c r="M9" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="70"/>
+      <c r="N9" s="68"/>
     </row>
     <row r="10" spans="1:16">
       <c r="B10" s="24">
@@ -6315,12 +6322,12 @@
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
       <c r="M17" s="38" t="s">
         <v>28</v>
       </c>
@@ -6370,7 +6377,7 @@
         <v>7</v>
       </c>
       <c r="L18" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M18" s="38" t="s">
         <v>29</v>
@@ -6648,11 +6655,11 @@
       <c r="L24" s="44"/>
       <c r="M24" s="47"/>
       <c r="N24" s="47"/>
-      <c r="O24" s="65" t="s">
+      <c r="O24" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
     </row>
     <row r="25" spans="1:17">
       <c r="K25" s="44"/>
@@ -6714,7 +6721,7 @@
         <f>_xlfn.XMATCH(1,C76:J76,0)</f>
         <v>2</v>
       </c>
-      <c r="M26" s="71" t="s">
+      <c r="M26" s="69" t="s">
         <v>45</v>
       </c>
       <c r="N26" s="46" t="s">
@@ -6778,7 +6785,7 @@
         <f t="shared" ref="L27:L29" si="2">_xlfn.XMATCH(1,C77:J77,0)</f>
         <v>6</v>
       </c>
-      <c r="M27" s="71"/>
+      <c r="M27" s="69"/>
       <c r="N27" s="46" t="s">
         <v>9</v>
       </c>
@@ -6840,7 +6847,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M28" s="71"/>
+      <c r="M28" s="69"/>
       <c r="N28" s="46" t="s">
         <v>10</v>
       </c>
@@ -7138,7 +7145,7 @@
         <v>1953.6000000000001</v>
       </c>
       <c r="J38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -7170,11 +7177,11 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="E42" s="63" t="s">
+      <c r="E42" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
     </row>
     <row r="43" spans="1:14">
       <c r="D43" s="12" t="s">
@@ -7306,21 +7313,21 @@
     </row>
     <row r="53" spans="1:10" ht="20.25" thickBot="1">
       <c r="A53" s="55" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" thickTop="1">
       <c r="A54" s="38"/>
-      <c r="B54" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
+      <c r="B54" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="66"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="66"/>
       <c r="J54" s="38"/>
     </row>
     <row r="55" spans="1:10" ht="16.5" thickBot="1">
@@ -7352,8 +7359,8 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" thickTop="1">
-      <c r="A56" s="64" t="s">
-        <v>56</v>
+      <c r="A56" s="71" t="s">
+        <v>55</v>
       </c>
       <c r="B56" s="48">
         <v>1</v>
@@ -7384,7 +7391,7 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="64"/>
+      <c r="A57" s="71"/>
       <c r="B57" s="48">
         <v>2</v>
       </c>
@@ -7414,7 +7421,7 @@
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="64"/>
+      <c r="A58" s="71"/>
       <c r="B58" s="48">
         <v>3</v>
       </c>
@@ -7444,7 +7451,7 @@
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="64"/>
+      <c r="A59" s="71"/>
       <c r="B59" s="48">
         <v>4</v>
       </c>
@@ -7474,7 +7481,7 @@
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="64"/>
+      <c r="A60" s="71"/>
       <c r="B60" s="48">
         <v>5</v>
       </c>
@@ -7504,7 +7511,7 @@
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="64"/>
+      <c r="A61" s="71"/>
       <c r="B61" s="48">
         <v>6</v>
       </c>
@@ -7534,7 +7541,7 @@
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="64"/>
+      <c r="A62" s="71"/>
       <c r="B62" s="48">
         <v>7</v>
       </c>
@@ -7564,7 +7571,7 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="64"/>
+      <c r="A63" s="71"/>
       <c r="B63" s="48">
         <v>8</v>
       </c>
@@ -7594,7 +7601,7 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="64"/>
+      <c r="A64" s="71"/>
       <c r="B64" s="48">
         <v>9</v>
       </c>
@@ -7624,7 +7631,7 @@
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="64"/>
+      <c r="A65" s="71"/>
       <c r="B65" s="48">
         <v>10</v>
       </c>
@@ -7654,7 +7661,7 @@
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="64"/>
+      <c r="A66" s="71"/>
       <c r="B66" s="48">
         <v>11</v>
       </c>
@@ -7684,7 +7691,7 @@
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="64"/>
+      <c r="A67" s="71"/>
       <c r="B67" s="48">
         <v>12</v>
       </c>
@@ -7715,16 +7722,16 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="38"/>
-      <c r="B69" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="63"/>
-      <c r="H69" s="63"/>
-      <c r="I69" s="63"/>
+      <c r="B69" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="66"/>
+      <c r="I69" s="66"/>
       <c r="J69" s="38"/>
     </row>
     <row r="70" spans="1:14" ht="16.5" thickBot="1">
@@ -7755,15 +7762,15 @@
         <v>8</v>
       </c>
       <c r="K70" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="M70" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="M70" s="44" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="71" spans="1:14" ht="16.5" thickTop="1">
-      <c r="A71" s="64" t="s">
-        <v>56</v>
+      <c r="A71" s="71" t="s">
+        <v>55</v>
       </c>
       <c r="B71" s="48">
         <v>1</v>
@@ -7809,7 +7816,7 @@
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="64"/>
+      <c r="A72" s="71"/>
       <c r="B72" s="48">
         <v>2</v>
       </c>
@@ -7854,7 +7861,7 @@
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="64"/>
+      <c r="A73" s="71"/>
       <c r="B73" s="48">
         <v>3</v>
       </c>
@@ -7899,7 +7906,7 @@
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="64"/>
+      <c r="A74" s="71"/>
       <c r="B74" s="48">
         <v>4</v>
       </c>
@@ -7944,7 +7951,7 @@
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="64"/>
+      <c r="A75" s="71"/>
       <c r="B75" s="48">
         <v>5</v>
       </c>
@@ -7989,7 +7996,7 @@
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="64"/>
+      <c r="A76" s="71"/>
       <c r="B76" s="48">
         <v>6</v>
       </c>
@@ -8034,7 +8041,7 @@
       </c>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="64"/>
+      <c r="A77" s="71"/>
       <c r="B77" s="48">
         <v>7</v>
       </c>
@@ -8079,7 +8086,7 @@
       </c>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="64"/>
+      <c r="A78" s="71"/>
       <c r="B78" s="48">
         <v>8</v>
       </c>
@@ -8124,7 +8131,7 @@
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="64"/>
+      <c r="A79" s="71"/>
       <c r="B79" s="48">
         <v>9</v>
       </c>
@@ -8169,7 +8176,7 @@
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="64"/>
+      <c r="A80" s="71"/>
       <c r="B80" s="48">
         <v>10</v>
       </c>
@@ -8214,7 +8221,7 @@
       </c>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="64"/>
+      <c r="A81" s="71"/>
       <c r="B81" s="48">
         <v>11</v>
       </c>
@@ -8259,7 +8266,7 @@
       </c>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="64"/>
+      <c r="A82" s="71"/>
       <c r="B82" s="48">
         <v>12</v>
       </c>
@@ -8305,7 +8312,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="B83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C83" s="44">
         <f t="shared" ref="C83:J83" si="6">SUM(C71:C82)</f>
@@ -8342,28 +8349,28 @@
     </row>
     <row r="84" spans="1:14">
       <c r="C84" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D84" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E84" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F84" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G84" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H84" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I84" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J84" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -8404,17 +8411,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="A56:A67"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="A71:A82"/>
+    <mergeCell ref="O24:Q24"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="E42:G42"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="M26:M28"/>
     <mergeCell ref="D17:G17"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="A56:A67"/>
-    <mergeCell ref="B69:I69"/>
-    <mergeCell ref="A71:A82"/>
-    <mergeCell ref="O24:Q24"/>
   </mergeCells>
   <conditionalFormatting sqref="N10:N13">
     <cfRule type="cellIs" dxfId="11" priority="24" operator="equal">
@@ -8488,23 +8495,23 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="L29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
